--- a/biology/Botanique/Tabernaemontana/Tabernaemontana.xlsx
+++ b/biology/Botanique/Tabernaemontana/Tabernaemontana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tabernaemontana est un genre de plantes à fleurs de la famille des Apocynacées. Il regroupe 100 à 110 espèces que l'on trouve dans les régions tropicales. Ces plantes sont des arbrisseaux et des arbres de 1 à 15 m de haut. Les feuilles sont sempervirentes, opposées, longues de 3 à 25 cm, à sève laiteuse. Les fleurs sont odorantes, blanches, d'un diamètre de 1 à 5 cm.
 </t>
@@ -511,9 +523,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Tabernaemontana a été créé par Carl von Linné en 1753[1] en référence au botaniste et médecin allemand Jakob Dietrich von Bergzabern (Bad Bergzabern, 1522 - Heidelberg, 1590), connu aussi sous le nom de Tabernaemontanus, latinisation de son lieu de naissance Bergzabern.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Tabernaemontana a été créé par Carl von Linné en 1753 en référence au botaniste et médecin allemand Jakob Dietrich von Bergzabern (Bad Bergzabern, 1522 - Heidelberg, 1590), connu aussi sous le nom de Tabernaemontanus, latinisation de son lieu de naissance Bergzabern.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Synonymes taxinomiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une grande confusion règne dans la littérature botanique concernant la délimitation de ce genre[2],[3]
-,[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une grande confusion règne dans la littérature botanique concernant la délimitation de ce genre,
+,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le genre Tabernaemontana est pantropical. Il comporte environ 110 espèces[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le genre Tabernaemontana est pantropical. Il comporte environ 110 espèces.
 On trouve environ 18 espèces sur le continent africain et 15 à Madagascar.
 Tabernaemontana africana. Afrique.
 Tabernaemontana alba (White Milkwood). Amérique centrale.
@@ -646,12 +664,49 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont pour la plupart des petits arbres, ou arbustes ou même des sous-arbrisseaux. Leurs feuilles sont persistantes, lancéolées et sont plus ou moins coriaces. Les fruits sont bipartites avec une constriction plus ou moins nette. On trouve le plus souvent cette plante en Afrique ou en Amérique du Sud.
 On retrouve dans les espèces de Tabernaemontana beaucoup d'alcaloïdes qui ressemblent à l'ibogaïne comme la voacangine et d'autres alcaloïdes indoliques.
-Utilisations
-L'espèce T. crassa était utilisée comme narcotique dans la médecine de l'Afrique (principalement l'ouest). L'espèce T. dichotoma était quant à elle utilisée pour ses propriétés hallucinogènes. Quelques espèces de Tabernaemontana rentrent dans la composition de la drogue psychédélique nommée Ayahuasca.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tabernaemontana</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tabernaemontana</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce T. crassa était utilisée comme narcotique dans la médecine de l'Afrique (principalement l'ouest). L'espèce T. dichotoma était quant à elle utilisée pour ses propriétés hallucinogènes. Quelques espèces de Tabernaemontana rentrent dans la composition de la drogue psychédélique nommée Ayahuasca.
 Dans toutes les régions tropicales, les propriétés pharmacologiques des alcaloïdes indoliques sont mises à profit. Le latex toxique de T. ciliata que l'on rencontre au nord et nord-est de Madagascar est utilisé comme purgatif puissant. En Afrique de l'Ouest, le latex de T. crassa réduit en pâte est utilisé comme anesthésique local (luxations, maux de tête, blessures...) et pour les infections dermiques (filariose, teigne et mycose).
 Préparation des tabernaemontana
 On utilise les feuilles, les racines et l'écorce de la plante pour en préparer des remèdes. Les graines sont aussi ingérées ou préparées en infusion comme hallucinogène.
